--- a/static/export.xlsx
+++ b/static/export.xlsx
@@ -92,7 +92,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -452,11 +452,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="2" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" outlineLevel="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="10" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="3" max="3" width="10" outlineLevel="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
